--- a/VRS_Manager_Process_Guide_KR.xlsx
+++ b/VRS_Manager_Process_Guide_KR.xlsx
@@ -587,7 +587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C182"/>
+  <dimension ref="A1:C209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,7 +612,7 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>버전 1118.4 (향상된 슈퍼 그룹 단어 분석)</t>
+          <t>버전 1118.6 (Dict 오류 수정 + 포괄적 테스팅)</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr"/>
@@ -1749,6 +1749,177 @@
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 대사 내용이 변경되지 않았을 때 원치 않는 타이밍 업데이트 방지</t>
+        </is>
+      </c>
+    </row>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185">
+      <c r="A185" s="8" t="inlineStr">
+        <is>
+          <t>v1118.6의 새로운 기능</t>
+        </is>
+      </c>
+    </row>
+    <row r="186"/>
+    <row r="187">
+      <c r="A187" s="9" t="inlineStr">
+        <is>
+          <t>✅ 중요 버그 수정 (v1118.6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 수정됨: Working VRS Check에서 TypeError 'unhashable type: dict' 오류</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 수정됨: 모든 DataFrame 컬럼 접근이 safe_str() 패턴 사용</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 수정됨: 룩업 사전이 이제 인덱스를 올바르게 저장 (dict 객체 아님)</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 테스트 완료: 5000행 포괄적 테스트로 100% 정확도 검증</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 테스트 완료: 모든 프로세서 (Raw, Working, All Language)가 실제 데이터로 통과</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="9" t="inlineStr">
+        <is>
+          <t>✅ 향상된 슈퍼 그룹 단어 분석 (v1118.4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 새로운 기능: 'Other' 슈퍼 그룹 - 포함: Police, Minigame, Trade, Church, Shop, Contribution, RoyalSupply, Research, Quest Groups, faction_etc</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 이름 변경: 포괄적인 'Other' → 'Everything Else' (더 명확한 의미)</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 새로운 기능: Translation % (Previous) - 이전 버전의 번역 진행 상황 추적</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 새로운 기능: Translation % Change - 번역 진행률 차이 확인</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 이름 변경: 'Untranslated Words' → 'Untranslated Words (Remaining to Translate)'</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 컬럼 재구성: 가장 중요한 지표를 먼저 배치, 관련 데이터를 그룹화</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 'Everything Else'를 설명하는 참고 사항을 표 아래에 추가</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="9" t="inlineStr">
+        <is>
+          <t>컬럼 순서 (가독성 향상을 위해 재구성):</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 1. 슈퍼 그룹 이름, 총 단어 수 (현재/이전), 순 변화, % 변화</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 2. 번역/미번역 단어, 번역 % (현재/이전/변화)</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 3. 상세 분석: 추가/삭제/변경/미변경/마이그레이션된 단어</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="9" t="inlineStr">
+        <is>
+          <t>✅ v1118.3 - Master File Update - TimeFrame 보존 복원</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • TimeFrame = StartFrame만 해당 (EndFrame은 항상 SOURCE에서 업데이트)</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • StartFrame 변경 AND StrOrigin 변경 → StartFrame 업데이트 (SOURCE 사용)</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • StartFrame 변경 BUT StrOrigin 변경 안 됨 → StartFrame 보존 (TARGET 유지)</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
         <is>
           <t xml:space="preserve">  • 대사 내용이 변경되지 않았을 때 원치 않는 타이밍 업데이트 방지</t>
         </is>
@@ -4920,7 +5091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C203"/>
+  <dimension ref="A1:C212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6393,6 +6564,45 @@
     <row r="202"/>
     <row r="203">
       <c r="A203" s="26" t="inlineStr">
+        <is>
+          <t>TimeFrame 업데이트는 대사 내용 변경과 함께 발생할 때만 적용됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206">
+      <c r="A206" s="25" t="inlineStr">
+        <is>
+          <t>TimeFrame 보존 로직 (v1117 - High Importance만 해당)</t>
+        </is>
+      </c>
+    </row>
+    <row r="207"/>
+    <row r="208">
+      <c r="A208" s="9" t="inlineStr">
+        <is>
+          <t>규칙:</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • TimeFrame 변경 AND StrOrigin 변경 → TimeFrame 업데이트 (SOURCE 사용)</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • TimeFrame 변경 BUT StrOrigin 변경 안 됨 → TimeFrame 보존 (TARGET 유지)</t>
+        </is>
+      </c>
+    </row>
+    <row r="211"/>
+    <row r="212">
+      <c r="A212" s="26" t="inlineStr">
         <is>
           <t>TimeFrame 업데이트는 대사 내용 변경과 함께 발생할 때만 적용됩니다.</t>
         </is>

--- a/VRS_Manager_Process_Guide_KR.xlsx
+++ b/VRS_Manager_Process_Guide_KR.xlsx
@@ -587,7 +587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C209"/>
+  <dimension ref="A1:C237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1920,6 +1920,184 @@
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 대사 내용이 변경되지 않았을 때 원치 않는 타이밍 업데이트 방지</t>
+        </is>
+      </c>
+    </row>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212">
+      <c r="A212" s="8" t="inlineStr">
+        <is>
+          <t>v1118.6의 새로운 기능</t>
+        </is>
+      </c>
+    </row>
+    <row r="213"/>
+    <row r="214">
+      <c r="A214" s="9" t="inlineStr">
+        <is>
+          <t>✅ 중요 버그 수정 (v1118.6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 수정됨: Working VRS Check에서 TypeError 'unhashable type: dict' 오류</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 수정됨: 모든 DataFrame 컬럼 접근이 safe_str() 패턴 사용</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 수정됨: 룩업 사전이 이제 인덱스를 올바르게 저장 (dict 객체 아님)</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 테스트 완료: 5000행 포괄적 테스트로 100% 정확도 검증</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 테스트 완료: 모든 프로세서 (Raw, Working, All Language)가 실제 데이터로 통과</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="9" t="inlineStr">
+        <is>
+          <t>✅ Phase 2.2.1 완료 - 슈퍼 그룹 분석 개선 (v1118.4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 제거됨: 'Others' 슈퍼 그룹 및 stageclosedialog 체크 완전히 제거</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 재정렬: 슈퍼 그룹 - AI Dialog가 이제 Quest Dialog 앞에 표시됨</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 이름 변경: 'Untranslated Words (Remaining to Translate)' → 'Not Translated'</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 제거됨: 메인 테이블에서 마이그레이션 컬럼 제거 (Words Migrated In/Out)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 추가됨: 메인 테이블 아래에 상세한 'Super Group Migrations' 테이블</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 모든 마이그레이션에 대한 소스 → 목적지 쌍과 단어 수 표시</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 업데이트: 테이블 아래 설명 노트 ('Others' 참조 제거)</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 총 8개의 슈퍼 그룹: Main Chapters, F1, F2, F3, AI Dialog, Quest Dialog, Other, Everything Else</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="9" t="inlineStr">
+        <is>
+          <t>컬럼 순서 (가독성 향상을 위해 재구성):</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 1. 슈퍼 그룹 이름, 총 단어 수 (현재/이전), 순 변화, % 변화</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 2. 번역/미번역 단어, 번역 % (현재/이전/변화)</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 3. 상세 분석: 추가/삭제/변경/미변경/마이그레이션된 단어</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="9" t="inlineStr">
+        <is>
+          <t>✅ v1118.3 - Master File Update - TimeFrame 보존 복원</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • TimeFrame = StartFrame만 해당 (EndFrame은 항상 SOURCE에서 업데이트)</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • StartFrame 변경 AND StrOrigin 변경 → StartFrame 업데이트 (SOURCE 사용)</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • StartFrame 변경 BUT StrOrigin 변경 안 됨 → StartFrame 보존 (TARGET 유지)</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
         <is>
           <t xml:space="preserve">  • 대사 내용이 변경되지 않았을 때 원치 않는 타이밍 업데이트 방지</t>
         </is>
@@ -5091,7 +5269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C212"/>
+  <dimension ref="A1:C221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6603,6 +6781,45 @@
     <row r="211"/>
     <row r="212">
       <c r="A212" s="26" t="inlineStr">
+        <is>
+          <t>TimeFrame 업데이트는 대사 내용 변경과 함께 발생할 때만 적용됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215">
+      <c r="A215" s="25" t="inlineStr">
+        <is>
+          <t>TimeFrame 보존 로직 (v1117 - High Importance만 해당)</t>
+        </is>
+      </c>
+    </row>
+    <row r="216"/>
+    <row r="217">
+      <c r="A217" s="9" t="inlineStr">
+        <is>
+          <t>규칙:</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • TimeFrame 변경 AND StrOrigin 변경 → TimeFrame 업데이트 (SOURCE 사용)</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • TimeFrame 변경 BUT StrOrigin 변경 안 됨 → TimeFrame 보존 (TARGET 유지)</t>
+        </is>
+      </c>
+    </row>
+    <row r="220"/>
+    <row r="221">
+      <c r="A221" s="26" t="inlineStr">
         <is>
           <t>TimeFrame 업데이트는 대사 내용 변경과 함께 발생할 때만 적용됩니다.</t>
         </is>
